--- a/CEEN562_HW3.xlsx
+++ b/CEEN562_HW3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarnes7\Documents\HW\ceen_562\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbarnes/Documents/GitHub/ceen562/ceen_562/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71490023-8CBC-4A68-88D3-02299F91A470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BCCAC7-1C35-A241-B902-EDBC15DFAD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24825" windowHeight="9330" activeTab="2" xr2:uid="{BCA1D11D-DDB3-462A-9357-55517FCFEFD2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24820" windowHeight="18900" activeTab="2" xr2:uid="{BCA1D11D-DDB3-462A-9357-55517FCFEFD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 11-2" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Sy</t>
   </si>
@@ -192,14 +200,36 @@
   </si>
   <si>
     <t>No. of Stops</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Section Length</t>
+  </si>
+  <si>
+    <t>Section Travel Time</t>
+  </si>
+  <si>
+    <t>Running Speed</t>
+  </si>
+  <si>
+    <t>Travel Speed</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -251,22 +281,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,6 +316,1210 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Travel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Speed and Running Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Running Speed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Problem 11-5'!$J$6:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.03448275862069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.986301369863014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E571-BC41-8E08-371BEE2CCEFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Travel Speed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Problem 11-5'!$K$6:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.688311688311689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.03448275862069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E571-BC41-8E08-371BEE2CCEFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1990453071"/>
+        <c:axId val="1991210191"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1990453071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Checkpoint</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1991210191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1991210191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mi/h)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990453071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAAB8D1-5BFA-8D4B-88B1-F6CDF82B2FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,12 +1825,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -604,7 +1842,7 @@
         <v>0.67237831062028808</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +1851,7 @@
         <v>4.0155965136787</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
@@ -621,12 +1859,12 @@
         <v>0.99999899999999997</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -639,7 +1877,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,7 +1890,7 @@
         <v>41.799585766056971</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -671,21 +1909,21 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -699,9 +1937,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
@@ -724,7 +1962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
@@ -753,7 +1991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
@@ -782,7 +2020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
@@ -812,7 +2050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
@@ -832,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
@@ -851,20 +2089,20 @@
       <c r="H10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="4">
         <f>(K7*(K8/K4))*0.9</f>
         <v>4.6862068965517238</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
@@ -884,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
@@ -906,10 +2144,10 @@
       <c r="I12" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="1">
         <f>(K5)/(D21*1)</f>
         <v>20.333333333333332</v>
@@ -918,7 +2156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
@@ -937,16 +2175,16 @@
       <c r="H13" s="1">
         <v>4</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="1">
         <f>K5/K4</f>
         <v>0.70114942528735635</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -965,15 +2203,15 @@
       <c r="H14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
@@ -993,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1012,16 +2250,16 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8">
+      <c r="K16" s="7"/>
+      <c r="L16" s="5">
         <f>M10+(L13*L14)</f>
         <v>3.9850574712643674</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1041,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1061,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1081,8 +2319,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="1">
@@ -1101,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1142,18 +2380,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2462748-5FEE-4843-9709-AD9D78F5977E}">
-  <dimension ref="C3:G12"/>
+  <dimension ref="C3:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1166,49 +2405,83 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="10">
+        <v>60</v>
+      </c>
+      <c r="J6" s="11">
+        <f>(H6/(I6-F6)*3600)</f>
+        <v>30</v>
+      </c>
+      <c r="K6" s="12">
+        <f>(H6/I6*60*60)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="F7" s="1">
@@ -1217,15 +2490,30 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <f>D7-D6</f>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>65</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J12" si="0">(H7/(I7-F7)*3600)</f>
+        <v>32.727272727272727</v>
+      </c>
+      <c r="K7" s="12">
+        <f>(H7/I7*60*60)</f>
+        <v>27.692307692307693</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>2.25</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.20138888888888887</v>
       </c>
       <c r="F8" s="1">
@@ -1234,15 +2522,30 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H12" si="1">D8-D7</f>
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="10">
+        <v>165</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K8" s="12">
+        <f>(H8/I8*60*60)</f>
+        <v>27.272727272727273</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>3.5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>0.3125</v>
       </c>
       <c r="F9" s="1">
@@ -1251,15 +2554,30 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="I9" s="10">
+        <v>160</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K9" s="12">
+        <f>(H9/I9*60*60)</f>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>0.38194444444444442</v>
       </c>
       <c r="F10" s="1">
@@ -1268,15 +2586,30 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="10">
+        <v>100</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>31.03448275862069</v>
+      </c>
+      <c r="K10" s="12">
+        <f>(H10/I10*60*60)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>4.25</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>0.43541666666666662</v>
       </c>
       <c r="F11" s="1">
@@ -1285,15 +2618,30 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="10">
+        <v>77</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K11" s="12">
+        <f>(H11/I11*60*60)</f>
+        <v>11.688311688311689</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>0.49583333333333335</v>
       </c>
       <c r="F12" s="1">
@@ -1301,6 +2649,77 @@
       </c>
       <c r="G12" s="1">
         <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="10">
+        <v>87</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>36.986301369863014</v>
+      </c>
+      <c r="K12" s="12">
+        <f>(H12/I12*60*60)</f>
+        <v>31.03448275862069</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <f>E12</f>
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F6:F12)</f>
+        <v>168</v>
+      </c>
+      <c r="G13" s="1">
+        <f>SUM(G6:G12)</f>
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SUM(H6:H12)</f>
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <f>SUM(I6:I12)</f>
+        <v>714</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="11">
+        <f>AVERAGE(J6:J12)</f>
+        <v>32.487817646060442</v>
+      </c>
+      <c r="K14" s="11">
+        <f>AVERAGE(K6:K12)</f>
+        <v>24.830404201709623</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="12">
+        <f>STDEV(J6:J12)</f>
+        <v>2.45676425674209</v>
+      </c>
+      <c r="K15" s="12">
+        <f>STDEV(K6:K12)</f>
+        <v>7.1832458273204818</v>
       </c>
     </row>
   </sheetData>
@@ -1311,5 +2730,6 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>